--- a/vegetable_yield_prediction_oct_2025.xlsx
+++ b/vegetable_yield_prediction_oct_2025.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3556.097530423281</v>
+        <v>3556.09753042328</v>
       </c>
     </row>
     <row r="7">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1193.122968882969</v>
+        <v>1193.122968882968</v>
       </c>
     </row>
     <row r="9">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>899.5599388481889</v>
+        <v>899.5599388481892</v>
       </c>
     </row>
     <row r="14">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2925.025028591777</v>
+        <v>2925.025028591778</v>
       </c>
     </row>
     <row r="17">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2369.583606994857</v>
+        <v>2369.583606994856</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>562.5610735930734</v>
+        <v>562.5610735930733</v>
       </c>
     </row>
   </sheetData>

--- a/vegetable_yield_prediction_oct_2025.xlsx
+++ b/vegetable_yield_prediction_oct_2025.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2899.338640211639</v>
+        <v>2899.33864021164</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3556.09753042328</v>
+        <v>3556.097530423281</v>
       </c>
     </row>
     <row r="7">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1193.122968882968</v>
+        <v>1193.122968882969</v>
       </c>
     </row>
     <row r="9">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2925.025028591778</v>
+        <v>2925.025028591777</v>
       </c>
     </row>
     <row r="17">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2369.583606994856</v>
+        <v>2369.583606994857</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>562.5610735930733</v>
+        <v>562.5610735930734</v>
       </c>
     </row>
   </sheetData>
